--- a/data/imcp_api_data.xlsx
+++ b/data/imcp_api_data.xlsx
@@ -4,21 +4,32 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24860" windowHeight="11400"/>
+    <workbookView windowWidth="24860" windowHeight="11400" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="登陆模块" sheetId="1" r:id="rId1"/>
+    <sheet name="主页图表" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55">
   <si>
     <t>测试用例编号</t>
   </si>
   <si>
+    <t>测试用例模块</t>
+  </si>
+  <si>
     <t>测试用例名称</t>
   </si>
   <si>
@@ -70,6 +81,9 @@
     <t>imcp_case_01</t>
   </si>
   <si>
+    <t>登陆模块</t>
+  </si>
+  <si>
     <t>用户登陆</t>
   </si>
   <si>
@@ -100,6 +114,9 @@
     <t>companyId</t>
   </si>
   <si>
+    <t>imcp_case_02</t>
+  </si>
+  <si>
     <t>用户登陆验证</t>
   </si>
   <si>
@@ -127,6 +144,9 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
+    <t>imcp_case_03</t>
+  </si>
+  <si>
     <t>获取登陆token</t>
   </si>
   <si>
@@ -145,6 +165,9 @@
     <t>access_token</t>
   </si>
   <si>
+    <t>imcp_case_04</t>
+  </si>
+  <si>
     <t>用户登陆状态</t>
   </si>
   <si>
@@ -161,6 +184,9 @@
   </si>
   <si>
     <t>userId</t>
+  </si>
+  <si>
+    <t>主页图标</t>
   </si>
 </sst>
 </file>
@@ -168,10 +194,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -212,10 +238,95 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -227,46 +338,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -275,52 +346,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -347,43 +373,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -395,127 +505,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -534,21 +560,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -572,16 +583,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -601,6 +612,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -616,13 +638,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -631,142 +657,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -776,11 +802,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1105,31 +1134,31 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="15.3214285714286" customWidth="1"/>
-    <col min="2" max="4" width="17.2589285714286" customWidth="1"/>
-    <col min="5" max="5" width="16.0714285714286" customWidth="1"/>
-    <col min="6" max="6" width="15.6160714285714" customWidth="1"/>
-    <col min="7" max="7" width="16.5089285714286" customWidth="1"/>
-    <col min="9" max="9" width="16.8035714285714" customWidth="1"/>
-    <col min="10" max="10" width="29.6071428571429" customWidth="1"/>
-    <col min="11" max="11" width="18.7410714285714" customWidth="1"/>
-    <col min="12" max="12" width="36.6071428571429" customWidth="1"/>
-    <col min="13" max="13" width="13.5357142857143" customWidth="1"/>
-    <col min="14" max="14" width="14.125" customWidth="1"/>
-    <col min="15" max="15" width="12.6428571428571" customWidth="1"/>
-    <col min="16" max="16" width="33.7767857142857" customWidth="1"/>
-    <col min="17" max="17" width="13.5357142857143" customWidth="1"/>
+    <col min="1" max="2" width="15.3214285714286" customWidth="1"/>
+    <col min="3" max="5" width="17.2589285714286" customWidth="1"/>
+    <col min="6" max="6" width="16.0714285714286" customWidth="1"/>
+    <col min="7" max="7" width="15.6160714285714" customWidth="1"/>
+    <col min="8" max="8" width="16.5089285714286" customWidth="1"/>
+    <col min="10" max="10" width="16.8035714285714" customWidth="1"/>
+    <col min="11" max="11" width="29.6071428571429" customWidth="1"/>
+    <col min="12" max="12" width="18.7410714285714" customWidth="1"/>
+    <col min="13" max="13" width="36.6071428571429" customWidth="1"/>
+    <col min="14" max="14" width="13.5357142857143" customWidth="1"/>
+    <col min="15" max="15" width="14.125" customWidth="1"/>
+    <col min="16" max="16" width="12.6428571428571" customWidth="1"/>
+    <col min="17" max="17" width="33.7767857142857" customWidth="1"/>
+    <col min="18" max="18" width="13.5357142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:17">
+    <row r="1" s="1" customFormat="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1181,165 +1210,560 @@
       <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:18">
       <c r="A2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B2" s="3" t="s">
         <v>19</v>
       </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>28</v>
+      </c>
+      <c r="R2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" t="s">
         <v>21</v>
       </c>
-      <c r="H2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2"/>
-      <c r="J2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2"/>
-      <c r="M2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" t="s">
+        <v>37</v>
+      </c>
+      <c r="P3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q3" t="s">
         <v>27</v>
       </c>
+      <c r="R3" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="2"/>
-      <c r="B3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3"/>
-      <c r="J3" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3" t="s">
-        <v>33</v>
-      </c>
-      <c r="N3" t="s">
+    <row r="4" spans="1:17">
+      <c r="A4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" t="s">
         <v>34</v>
       </c>
-      <c r="O3" t="s">
-        <v>35</v>
-      </c>
-      <c r="P3" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q3" t="s">
+      <c r="K4" t="s">
+        <v>44</v>
+      </c>
+      <c r="N4" t="s">
         <v>36</v>
       </c>
+      <c r="O4" t="s">
+        <v>45</v>
+      </c>
+      <c r="P4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="2"/>
-      <c r="B4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4"/>
-      <c r="J4" t="s">
-        <v>40</v>
-      </c>
-      <c r="M4" t="s">
-        <v>33</v>
-      </c>
-      <c r="N4" t="s">
-        <v>41</v>
-      </c>
-      <c r="O4" t="s">
-        <v>42</v>
-      </c>
-      <c r="P4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="2"/>
-      <c r="B5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
+    <row r="5" spans="1:17">
+      <c r="A5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" t="s">
+        <v>48</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5"/>
-      <c r="J5" t="s">
-        <v>46</v>
-      </c>
-      <c r="M5" t="s">
-        <v>33</v>
+        <v>50</v>
+      </c>
+      <c r="I5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" t="s">
+        <v>51</v>
       </c>
       <c r="N5" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="O5" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="P5" t="s">
-        <v>25</v>
+        <v>53</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2">
       <formula1>"none,key,key_value,code,re,header_key,header_key_value"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M2:M21">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="N2:N21">
       <formula1>"none,jsonpath,re"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P3:P5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3:Q5">
       <formula1>"none,key,key_vaue,value,re"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:R5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="4"/>
+  <cols>
+    <col min="1" max="2" width="15.3214285714286" customWidth="1"/>
+    <col min="3" max="5" width="17.2589285714286" customWidth="1"/>
+    <col min="6" max="6" width="16.0714285714286" customWidth="1"/>
+    <col min="7" max="7" width="15.6160714285714" customWidth="1"/>
+    <col min="8" max="8" width="16.5089285714286" customWidth="1"/>
+    <col min="10" max="10" width="16.8035714285714" customWidth="1"/>
+    <col min="11" max="11" width="29.6071428571429" customWidth="1"/>
+    <col min="12" max="12" width="18.7410714285714" customWidth="1"/>
+    <col min="13" max="13" width="36.6071428571429" customWidth="1"/>
+    <col min="14" max="14" width="13.5357142857143" customWidth="1"/>
+    <col min="15" max="15" width="14.125" customWidth="1"/>
+    <col min="16" max="16" width="12.6428571428571" customWidth="1"/>
+    <col min="17" max="17" width="33.7767857142857" customWidth="1"/>
+    <col min="18" max="18" width="13.5357142857143" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:18">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" spans="1:18">
+      <c r="A2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2"/>
+      <c r="K2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2"/>
+      <c r="N2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2" t="s">
+        <v>28</v>
+      </c>
+      <c r="R2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" spans="1:18">
+      <c r="A3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3"/>
+      <c r="K3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" t="s">
+        <v>37</v>
+      </c>
+      <c r="P3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="1:17">
+      <c r="A4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4"/>
+      <c r="K4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O4" t="s">
+        <v>45</v>
+      </c>
+      <c r="P4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" spans="1:17">
+      <c r="A5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5"/>
+      <c r="K5" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5" t="s">
+        <v>36</v>
+      </c>
+      <c r="O5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:B5"/>
+  </mergeCells>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2">
+      <formula1>"none,key,key_value,code,re,header_key,header_key_value"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="N2:N21">
+      <formula1>"none,jsonpath,re"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3:Q5">
+      <formula1>"none,key,key_vaue,value,re"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/data/imcp_api_data.xlsx
+++ b/data/imcp_api_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24860" windowHeight="11400" activeTab="1"/>
+    <workbookView windowWidth="24860" windowHeight="11340" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="登陆模块" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74">
   <si>
     <t>测试用例编号</t>
   </si>
@@ -105,88 +105,179 @@
     <t>{"account":"jintang","password":"YbjWkqAY5rEFzvztVjoD3g==","companyAccount":""}</t>
   </si>
   <si>
+    <t>jsonpath</t>
+  </si>
+  <si>
+    <t>$..companyId,$..userId</t>
+  </si>
+  <si>
+    <t>companyId,userId</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>companyId</t>
+  </si>
+  <si>
+    <t>imcp_case_02</t>
+  </si>
+  <si>
+    <t>获取登陆token</t>
+  </si>
+  <si>
+    <t>login_token</t>
+  </si>
+  <si>
+    <t>{"companyId":"${companyId}"}</t>
+  </si>
+  <si>
+    <t>/api/sfmdm/v1/auth/token</t>
+  </si>
+  <si>
+    <t>{"username":"jintang","password":"YbjWkqAY5rEFzvztVjoD3g==","client_id":"imcp","client_secret":"imcp","grant_type":"password","scope":"server"}</t>
+  </si>
+  <si>
+    <t>$..access_token</t>
+  </si>
+  <si>
+    <t>access_token</t>
+  </si>
+  <si>
+    <t>imcp_case_03</t>
+  </si>
+  <si>
+    <t>用户登陆验证</t>
+  </si>
+  <si>
+    <t>login_check</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>{"Authorization":"Bearer ${access_token}","companyId":"${companyId}"}</t>
+  </si>
+  <si>
+    <t>/api/sfmdm/v1/auth/check</t>
+  </si>
+  <si>
+    <t>$..success</t>
+  </si>
+  <si>
+    <t>success</t>
+  </si>
+  <si>
+    <t>imcp_case_04</t>
+  </si>
+  <si>
+    <t>用户登陆状态</t>
+  </si>
+  <si>
+    <t>login_status</t>
+  </si>
+  <si>
+    <t>/api/sfmdm/v1/auth/user</t>
+  </si>
+  <si>
+    <t>$..userId</t>
+  </si>
+  <si>
+    <t>userId</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>主页图标</t>
+  </si>
+  <si>
+    <t>闲置用户数</t>
+  </si>
+  <si>
+    <t>idel_time</t>
+  </si>
+  <si>
+    <t>{"Authorization":"Bearer ${access_token}","companyId":"${companyId}","userId":"${userId}"}</t>
+  </si>
+  <si>
+    <t>/api/sfmdm/v1/homepage/idle/time</t>
+  </si>
+  <si>
     <t>none</t>
   </si>
   <si>
-    <t>key</t>
-  </si>
-  <si>
-    <t>companyId</t>
-  </si>
-  <si>
-    <t>imcp_case_02</t>
-  </si>
-  <si>
-    <t>用户登陆验证</t>
-  </si>
-  <si>
-    <t>step_02</t>
-  </si>
-  <si>
-    <t>login_check</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>/api/sfmdm/v1/auth/check</t>
-  </si>
-  <si>
-    <t>jsonpath</t>
-  </si>
-  <si>
-    <t>$..success</t>
-  </si>
-  <si>
-    <t>success</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>imcp_case_03</t>
-  </si>
-  <si>
-    <t>获取登陆token</t>
-  </si>
-  <si>
-    <t>step_03</t>
-  </si>
-  <si>
-    <t>login_token</t>
-  </si>
-  <si>
-    <t>/api/sfmdm/v1/auth/token</t>
-  </si>
-  <si>
-    <t>$..access_token</t>
-  </si>
-  <si>
-    <t>access_token</t>
-  </si>
-  <si>
-    <t>imcp_case_04</t>
-  </si>
-  <si>
-    <t>用户登陆状态</t>
-  </si>
-  <si>
-    <t>step_04</t>
-  </si>
-  <si>
-    <t>login_status</t>
-  </si>
-  <si>
-    <t>/api/sfmdm/v1/auth/user</t>
-  </si>
-  <si>
-    <t>$..userId</t>
-  </si>
-  <si>
-    <t>userId</t>
-  </si>
-  <si>
-    <t>主页图标</t>
+    <t>失联用户数</t>
+  </si>
+  <si>
+    <t>lost_time</t>
+  </si>
+  <si>
+    <t>/api/sfmdm/v1/homepage/lost/time</t>
+  </si>
+  <si>
+    <t>表具总数及正常异常接口数</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>custome</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>r_total</t>
+    </r>
+  </si>
+  <si>
+    <t>/api/sfmdm/v1/homepage/customer/total</t>
+  </si>
+  <si>
+    <t>欠费3月以上用户数</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>rrears_time</t>
+    </r>
+  </si>
+  <si>
+    <t>/api/sfmdm/v1/homepage/arrears/time/90</t>
+  </si>
+  <si>
+    <t>imcp_case_05</t>
+  </si>
+  <si>
+    <t>欠费200元以上用户数</t>
+  </si>
+  <si>
+    <t>arrears_money</t>
+  </si>
+  <si>
+    <t>/api/sfmdm/v1/homepage/arrears/amount/200</t>
   </si>
 </sst>
 </file>
@@ -194,12 +285,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -222,10 +313,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -237,6 +359,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -245,14 +382,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -262,10 +391,32 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -277,51 +428,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -330,26 +436,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -367,37 +464,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,139 +578,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -564,24 +661,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -593,21 +672,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -638,6 +702,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -652,147 +734,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -802,7 +899,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -814,6 +911,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1137,7 +1246,7 @@
   <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="4"/>
@@ -1147,12 +1256,12 @@
     <col min="6" max="6" width="16.0714285714286" customWidth="1"/>
     <col min="7" max="7" width="15.6160714285714" customWidth="1"/>
     <col min="8" max="8" width="16.5089285714286" customWidth="1"/>
-    <col min="10" max="10" width="16.8035714285714" customWidth="1"/>
+    <col min="10" max="10" width="66.3660714285714" customWidth="1"/>
     <col min="11" max="11" width="29.6071428571429" customWidth="1"/>
-    <col min="12" max="12" width="18.7410714285714" customWidth="1"/>
+    <col min="12" max="12" width="85.5625" customWidth="1"/>
     <col min="13" max="13" width="36.6071428571429" customWidth="1"/>
     <col min="14" max="14" width="13.5357142857143" customWidth="1"/>
-    <col min="15" max="15" width="14.125" customWidth="1"/>
+    <col min="15" max="15" width="33.3303571428571" customWidth="1"/>
     <col min="16" max="16" width="12.6428571428571" customWidth="1"/>
     <col min="17" max="17" width="33.7767857142857" customWidth="1"/>
     <col min="18" max="18" width="13.5357142857143" customWidth="1"/>
@@ -1245,53 +1354,65 @@
       <c r="N2" t="s">
         <v>27</v>
       </c>
+      <c r="O2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" t="s">
+        <v>29</v>
+      </c>
       <c r="Q2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="R2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="H3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I3" t="s">
-        <v>34</v>
+        <v>24</v>
+      </c>
+      <c r="J3" t="s">
+        <v>35</v>
       </c>
       <c r="K3" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="L3" t="s">
+        <v>37</v>
       </c>
       <c r="N3" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="O3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="R3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:18">
       <c r="A4" s="2" t="s">
         <v>40</v>
       </c>
@@ -1303,55 +1424,64 @@
         <v>21</v>
       </c>
       <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s">
         <v>42</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>43</v>
       </c>
-      <c r="I4" t="s">
-        <v>34</v>
+      <c r="J4" t="s">
+        <v>44</v>
       </c>
       <c r="K4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N4" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="O4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q4" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="R4" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:18">
       <c r="A5" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F5" t="s">
         <v>21</v>
       </c>
       <c r="G5" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="H5" t="s">
         <v>50</v>
       </c>
       <c r="I5" t="s">
-        <v>34</v>
+        <v>43</v>
+      </c>
+      <c r="J5" t="s">
+        <v>44</v>
       </c>
       <c r="K5" t="s">
         <v>51</v>
       </c>
       <c r="N5" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="O5" t="s">
         <v>52</v>
@@ -1360,22 +1490,22 @@
         <v>53</v>
       </c>
       <c r="Q5" t="s">
-        <v>27</v>
+        <v>54</v>
+      </c>
+      <c r="R5" s="7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:B5"/>
   </mergeCells>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2">
-      <formula1>"none,key,key_value,code,re,header_key,header_key_value"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="N2:N21">
+  <dataValidations count="2">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="N2 N3 N4 N5:N21">
       <formula1>"none,jsonpath,re"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3:Q5">
-      <formula1>"none,key,key_vaue,value,re"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q5">
+      <formula1>"none,key,key_value,code,re,header_key,header_key_value"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -1386,28 +1516,29 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="105" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="2" width="15.3214285714286" customWidth="1"/>
-    <col min="3" max="5" width="17.2589285714286" customWidth="1"/>
+    <col min="3" max="3" width="26.0714285714286" customWidth="1"/>
+    <col min="4" max="5" width="17.2589285714286" customWidth="1"/>
     <col min="6" max="6" width="16.0714285714286" customWidth="1"/>
     <col min="7" max="7" width="15.6160714285714" customWidth="1"/>
     <col min="8" max="8" width="16.5089285714286" customWidth="1"/>
-    <col min="10" max="10" width="16.8035714285714" customWidth="1"/>
-    <col min="11" max="11" width="29.6071428571429" customWidth="1"/>
+    <col min="10" max="10" width="104.732142857143" customWidth="1"/>
+    <col min="11" max="11" width="45.6339285714286" customWidth="1"/>
     <col min="12" max="12" width="18.7410714285714" customWidth="1"/>
     <col min="13" max="13" width="36.6071428571429" customWidth="1"/>
     <col min="14" max="14" width="13.5357142857143" customWidth="1"/>
     <col min="15" max="15" width="14.125" customWidth="1"/>
     <col min="16" max="16" width="12.6428571428571" customWidth="1"/>
     <col min="17" max="17" width="33.7767857142857" customWidth="1"/>
-    <col min="18" max="18" width="13.5357142857143" customWidth="1"/>
+    <col min="18" max="18" width="34.0089285714286" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:18">
@@ -1466,18 +1597,16 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" customFormat="1" spans="1:18">
+    <row r="2" customFormat="1" ht="18" spans="1:18">
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2"/>
-      <c r="E2"/>
+        <v>56</v>
+      </c>
       <c r="F2" t="s">
         <v>21</v>
       </c>
@@ -1485,170 +1614,186 @@
         <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2"/>
+        <v>43</v>
+      </c>
+      <c r="J2" t="s">
+        <v>58</v>
+      </c>
       <c r="K2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M2"/>
+        <v>59</v>
+      </c>
       <c r="N2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2"/>
-      <c r="P2"/>
+        <v>60</v>
+      </c>
       <c r="Q2" t="s">
-        <v>28</v>
-      </c>
-      <c r="R2" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="3" customFormat="1" spans="1:18">
+    <row r="3" customFormat="1" ht="18" spans="1:18">
       <c r="A3" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3"/>
-      <c r="E3"/>
+        <v>61</v>
+      </c>
       <c r="F3" t="s">
         <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="H3" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="I3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3"/>
+        <v>43</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
       <c r="K3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L3"/>
-      <c r="M3"/>
+        <v>63</v>
+      </c>
       <c r="N3" t="s">
-        <v>36</v>
-      </c>
-      <c r="O3" t="s">
-        <v>37</v>
-      </c>
-      <c r="P3" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="Q3" t="s">
-        <v>27</v>
-      </c>
-      <c r="R3" t="s">
-        <v>39</v>
+        <v>30</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="4" customFormat="1" spans="1:17">
+    <row r="4" customFormat="1" ht="36" spans="1:18">
       <c r="A4" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4"/>
-      <c r="E4"/>
+      <c r="C4" s="4" t="s">
+        <v>64</v>
+      </c>
       <c r="F4" t="s">
         <v>21</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I4" t="s">
         <v>43</v>
       </c>
-      <c r="I4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4"/>
-      <c r="K4" t="s">
-        <v>44</v>
-      </c>
-      <c r="L4"/>
-      <c r="M4"/>
+      <c r="J4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="N4" t="s">
-        <v>36</v>
-      </c>
-      <c r="O4" t="s">
-        <v>45</v>
-      </c>
-      <c r="P4" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="Q4" t="s">
-        <v>27</v>
+        <v>54</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" customFormat="1" spans="1:17">
+    <row r="5" customFormat="1" ht="15" customHeight="1" spans="1:18">
       <c r="A5" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5"/>
-      <c r="E5"/>
+      <c r="C5" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="F5" t="s">
         <v>21</v>
       </c>
       <c r="G5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H5" t="s">
-        <v>50</v>
+        <v>22</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="I5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5"/>
-      <c r="K5" t="s">
-        <v>51</v>
-      </c>
-      <c r="L5"/>
-      <c r="M5"/>
+        <v>43</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>69</v>
+      </c>
       <c r="N5" t="s">
-        <v>36</v>
-      </c>
-      <c r="O5" t="s">
-        <v>52</v>
-      </c>
-      <c r="P5" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="Q5" t="s">
-        <v>27</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" ht="46" customHeight="1" spans="1:18">
+      <c r="A6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="I6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="N6" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>54</v>
+      </c>
+      <c r="R6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" ht="40" customHeight="1" spans="1:1">
+      <c r="A7" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:B5"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2 Q4:Q6">
       <formula1>"none,key,key_value,code,re,header_key,header_key_value"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="N2:N21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3 Q7">
+      <formula1>"none,key,key_vaue,value,re"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="N2:N7 N8:N21">
       <formula1>"none,jsonpath,re"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3:Q5">
-      <formula1>"none,key,key_vaue,value,re"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
